--- a/Programs/Lab 2/Lab2PrepTO/LeibRampProfile.xlsx
+++ b/Programs/Lab 2/Lab2PrepTO/LeibRampProfile.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\VSCode\Programs\Lab 2\LeibRampStepperTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\VSCode\Programs\Lab 2\Lab2PrepTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4CAE2F-8653-4A50-8D92-A5D79447B606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3B1A08-5F73-4864-A415-79E4DE3C561E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -592,37 +592,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -652,19 +622,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -1023,6 +981,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t> Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1085,6 +1098,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t> Speed (steps/s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2068,7 +2136,7 @@
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
